--- a/biology/Botanique/Lyngbya/Lyngbya.xlsx
+++ b/biology/Botanique/Lyngbya/Lyngbya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyngbya est un genre de cyanobactéries (anciennement appelées algues bleues) filamenteuses de la famille des Oscillatoriaceae.
 Selon les espèces, elles occupent le milieu marin ou les eaux douces. En milieu dulçaquicole, en cas de pollution par excès de phosphate, les filaments se développent fortement.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (30 mars 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (30 mars 2018) :
 Lyngbya aerugineo-caerulea (Kuetz.) Gomont
 Lyngbya aestuarii (Mert.) Lieb.
 Lyngbya birgei
